--- a/artfynd/A 23366-2019.xlsx
+++ b/artfynd/A 23366-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,6 +800,127 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112144586</v>
+      </c>
+      <c r="B3" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>102366</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Adscita statices</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Vä, delomr 10, 450 m ONO fängelset, Sk</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>442994.5965538067</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6204827.083255709</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2013-06-03</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2013-06-03</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>på igenväxande grässandmark</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 23366-2019.xlsx
+++ b/artfynd/A 23366-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112144586</v>
+        <v>112144581</v>
       </c>
       <c r="B3" t="n">
-        <v>44322</v>
+        <v>42594</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,16 +818,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102366</v>
+        <v>101260</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Svartfläckig blåvinge</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Phengaris arion</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -835,17 +835,41 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Vä, delomr 10, 450 m ONO fängelset, Sk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442994.5965538067</v>
+        <v>442971.9404393921</v>
       </c>
       <c r="R3" t="n">
-        <v>6204827.083255709</v>
+        <v>6204766.971186478</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -890,6 +914,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>lufthåvning</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -904,6 +933,21 @@
           <t>på igenväxande grässandmark</t>
         </is>
       </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>på grässtrå</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>NON 04616</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
@@ -916,6 +960,127 @@
         </is>
       </c>
       <c r="AY3" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112144586</v>
+      </c>
+      <c r="B4" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>102366</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Adscita statices</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Vä, delomr 10, 450 m ONO fängelset, Sk</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>442994.5965538067</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6204827.083255709</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2013-06-03</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2013-06-03</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>på igenväxande grässandmark</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
         <is>
           <t>Krst NV-program 2013</t>
         </is>

--- a/artfynd/A 23366-2019.xlsx
+++ b/artfynd/A 23366-2019.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112144581</v>
+        <v>112144586</v>
       </c>
       <c r="B3" t="n">
-        <v>42594</v>
+        <v>44322</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,16 +818,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101260</v>
+        <v>102366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svartfläckig blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phengaris arion</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -835,41 +835,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>vilande</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Vä, delomr 10, 450 m ONO fängelset, Sk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442971.9404393921</v>
+        <v>442995</v>
       </c>
       <c r="R3" t="n">
-        <v>6204766.971186478</v>
+        <v>6204827</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -899,24 +875,9 @@
           <t>2013-06-03</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2013-06-03</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>lufthåvning</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -931,21 +892,6 @@
       <c r="AI3" t="inlineStr">
         <is>
           <t>på igenväxande grässandmark</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>på grässtrå</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>NON 04616</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -967,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112144586</v>
+        <v>112144581</v>
       </c>
       <c r="B4" t="n">
-        <v>44322</v>
+        <v>42594</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -983,16 +929,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102366</v>
+        <v>101260</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Svartfläckig blåvinge</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Phengaris arion</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1000,17 +946,41 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Vä, delomr 10, 450 m ONO fängelset, Sk</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442994.5965538067</v>
+        <v>442972</v>
       </c>
       <c r="R4" t="n">
-        <v>6204827.083255709</v>
+        <v>6204767</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1040,19 +1010,14 @@
           <t>2013-06-03</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2013-06-03</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>lufthåvning</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1067,6 +1032,21 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>på igenväxande grässandmark</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>på grässtrå</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>NON 04616</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 23366-2019.xlsx
+++ b/artfynd/A 23366-2019.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112144586</v>
+        <v>112144581</v>
       </c>
       <c r="B3" t="n">
-        <v>44322</v>
+        <v>42600</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,16 +818,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102366</v>
+        <v>101260</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Svartfläckig blåvinge</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Phengaris arion</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -835,17 +835,41 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Vä, delomr 10, 450 m ONO fängelset, Sk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442995</v>
+        <v>442972</v>
       </c>
       <c r="R3" t="n">
-        <v>6204827</v>
+        <v>6204767</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -880,6 +904,11 @@
           <t>2013-06-03</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>lufthåvning</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -892,6 +921,21 @@
       <c r="AI3" t="inlineStr">
         <is>
           <t>på igenväxande grässandmark</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>på grässtrå</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>NON 04616</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -913,10 +957,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112144581</v>
+        <v>112144586</v>
       </c>
       <c r="B4" t="n">
-        <v>42594</v>
+        <v>44328</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,16 +973,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101260</v>
+        <v>102366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svartfläckig blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phengaris arion</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -946,41 +990,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>vilande</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Vä, delomr 10, 450 m ONO fängelset, Sk</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442972</v>
+        <v>442995</v>
       </c>
       <c r="R4" t="n">
-        <v>6204767</v>
+        <v>6204827</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1015,11 +1035,6 @@
           <t>2013-06-03</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>lufthåvning</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1032,21 +1047,6 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>på igenväxande grässandmark</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>på grässtrå</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>NON 04616</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 23366-2019.xlsx
+++ b/artfynd/A 23366-2019.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112144581</v>
+        <v>112144586</v>
       </c>
       <c r="B3" t="n">
-        <v>42600</v>
+        <v>44328</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,16 +818,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101260</v>
+        <v>102366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svartfläckig blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phengaris arion</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -835,41 +835,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>vilande</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Vä, delomr 10, 450 m ONO fängelset, Sk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442972</v>
+        <v>442995</v>
       </c>
       <c r="R3" t="n">
-        <v>6204767</v>
+        <v>6204827</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,11 +880,6 @@
           <t>2013-06-03</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>lufthåvning</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -921,21 +892,6 @@
       <c r="AI3" t="inlineStr">
         <is>
           <t>på igenväxande grässandmark</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>på grässtrå</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>NON 04616</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -957,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112144586</v>
+        <v>112144581</v>
       </c>
       <c r="B4" t="n">
-        <v>44328</v>
+        <v>42600</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -973,16 +929,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102366</v>
+        <v>101260</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Svartfläckig blåvinge</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Phengaris arion</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -990,17 +946,41 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Vä, delomr 10, 450 m ONO fängelset, Sk</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442995</v>
+        <v>442972</v>
       </c>
       <c r="R4" t="n">
-        <v>6204827</v>
+        <v>6204767</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1035,6 +1015,11 @@
           <t>2013-06-03</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>lufthåvning</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1047,6 +1032,21 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>på igenväxande grässandmark</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>på grässtrå</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>NON 04616</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
